--- a/BOM/BOM UPZ Switcher.xlsx
+++ b/BOM/BOM UPZ Switcher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\UPZ_Switcher\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C3ECF-389A-4FD9-901E-E4F64BB0F661}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DE537-1206-4601-84C6-44C55F7F5538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="6210" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
+    <workbookView xWindow="4830" yWindow="4755" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
   <sheets>
     <sheet name="FetHead" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -100,13 +100,70 @@
   </si>
   <si>
     <t>DB9 connector</t>
+  </si>
+  <si>
+    <t>Mosfet</t>
+  </si>
+  <si>
+    <t>B170</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>6K8 Phantom</t>
+  </si>
+  <si>
+    <t>1K Mosfet</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>10nF Mosfet</t>
+  </si>
+  <si>
+    <t>MicroController</t>
+  </si>
+  <si>
+    <t>Arduino Micro</t>
+  </si>
+  <si>
+    <t>IO Expander</t>
+  </si>
+  <si>
+    <t>MCP23017</t>
+  </si>
+  <si>
+    <t>DIP Socket</t>
+  </si>
+  <si>
+    <t>28 Pin Small</t>
+  </si>
+  <si>
+    <t>29 Pin Wide</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>4K7</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>1N4148</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +175,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,14 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339EA2E-58E6-48C2-B743-24C662D28A88}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
@@ -510,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F10" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -642,14 +706,15 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <f>8+8+2</f>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>3.17</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>107.78</v>
+        <v>57.06</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -657,22 +722,152 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f>D8</f>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f>D9</f>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <f>D11</f>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
-        <f>SUM(F2:F10)</f>
-        <v>159.65600000000001</v>
+      <c r="F22">
+        <f>SUM(F2:F15)</f>
+        <v>108.93600000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{AD3496D0-3AB9-4E69-AC55-E94813676579}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{A02C7244-D8B9-40AB-8FC8-DEAFD07974B3}"/>

--- a/BOM/BOM UPZ Switcher.xlsx
+++ b/BOM/BOM UPZ Switcher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\UPZ_Switcher\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DE537-1206-4601-84C6-44C55F7F5538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F88592-42CD-44F6-9B0A-C4F97A72F6D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="4755" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
+    <workbookView xWindow="4830" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
   <sheets>
     <sheet name="FetHead" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>1N4148</t>
+  </si>
+  <si>
+    <t>DIP Switch</t>
+  </si>
+  <si>
+    <t>Address selector</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339EA2E-58E6-48C2-B743-24C662D28A88}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,11 +863,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f>SUM(F2:F15)</f>
         <v>108.93600000000001</v>
       </c>

--- a/BOM/BOM UPZ Switcher.xlsx
+++ b/BOM/BOM UPZ Switcher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\UPZ_Switcher\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F88592-42CD-44F6-9B0A-C4F97A72F6D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68C337-8068-48A5-976E-2DAE630FFE94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Address selector</t>
+  </si>
+  <si>
+    <t>Header 10</t>
+  </si>
+  <si>
+    <t>Receptacle 10</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339EA2E-58E6-48C2-B743-24C662D28A88}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -830,7 +836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -841,7 +847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -852,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -863,7 +869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -874,11 +880,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1103961</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1103937</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <f>SUM(F2:F15)</f>
         <v>108.93600000000001</v>
       </c>
@@ -892,8 +920,10 @@
     <hyperlink ref="A6" r:id="rId4" xr:uid="{2200234E-19C1-4A6D-A257-A8DB47B48A2E}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{DBD43EE4-2E7F-42F4-ADDF-9E01CDD356B7}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{7C032C1A-3DAB-485E-B8EB-E9C947593005}"/>
+    <hyperlink ref="A23" r:id="rId7" display="1103937" xr:uid="{7A8246D9-2FF3-4722-A34A-AD1A61A9833B}"/>
+    <hyperlink ref="A22" r:id="rId8" display="1103961" xr:uid="{033BBA22-0713-46D5-8340-4FC998548605}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/BOM/BOM UPZ Switcher.xlsx
+++ b/BOM/BOM UPZ Switcher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\UPZ_Switcher\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68C337-8068-48A5-976E-2DAE630FFE94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F525503-4ABF-47FE-948E-620F9FDAF69B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>Receptacle 10</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>1-726386-2</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>IEC Filter</t>
+  </si>
+  <si>
+    <t>ACDC 48V</t>
+  </si>
+  <si>
+    <t>ACDC 5V</t>
   </si>
 </sst>
 </file>
@@ -537,14 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339EA2E-58E6-48C2-B743-24C662D28A88}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
@@ -902,11 +924,63 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="A26" s="1">
+        <v>2992519</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2671563</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3583986</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <f>SUM(F2:F15)</f>
         <v>108.93600000000001</v>
       </c>
@@ -922,8 +996,12 @@
     <hyperlink ref="A8" r:id="rId6" xr:uid="{7C032C1A-3DAB-485E-B8EB-E9C947593005}"/>
     <hyperlink ref="A23" r:id="rId7" display="1103937" xr:uid="{7A8246D9-2FF3-4722-A34A-AD1A61A9833B}"/>
     <hyperlink ref="A22" r:id="rId8" display="1103961" xr:uid="{033BBA22-0713-46D5-8340-4FC998548605}"/>
+    <hyperlink ref="A24" r:id="rId9" xr:uid="{D79EAC5C-97E9-4F55-854B-1E260CFD452E}"/>
+    <hyperlink ref="A26" r:id="rId10" display="2992519" xr:uid="{C9C3755A-9D99-4B8E-8E03-6E7357E2AD15}"/>
+    <hyperlink ref="A27" r:id="rId11" display="2671563" xr:uid="{B377D999-965E-424A-8DED-683DA1A584E8}"/>
+    <hyperlink ref="A28" r:id="rId12" display="3583986" xr:uid="{45099F28-E9F6-4702-8FA0-3949CA6A5D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>